--- a/excelDocs/testSheet.xlsx
+++ b/excelDocs/testSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34000" yWindow="1760" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,51 +71,29 @@
     <t>troubleshootingInstructions</t>
   </si>
   <si>
-    <t>DK1s4wpVkcKOcuSYwkai4</t>
-  </si>
-  <si>
-    <t>If you followed the connection steps, but you're still having trouble connecting your device, you may need to reset your device through a Z-Wave exclusion. Note: The Z-Wave exclusion will still reset your device if it has never been connected before or was previously connected elsewhere.
-1. Put the Hub into exclusion mode
-        a. Tap the back button until you reach the Home screen and tap the Hub 
-        b. Tap the three dots in the top right
-        c. Tap Z-Wave exclusion
-2. Press up and release the toggle switch
-After your device has been successfully excluded, follow the steps below to connect your device to the Hub. 
-1. Return to the device connection screen
-        a. Tap the back button until you reach the Home screen
-        b. Tap Add device
-        c. Select a category to find your device, or search for the device in the search bar
-2. Press up and release the toggle switch</t>
-  </si>
-  <si>
     <t>In-Wall Smart Outlet (Z-Wave)</t>
   </si>
   <si>
     <t>[GE 12721]</t>
   </si>
   <si>
-    <t>5as7fDSCeQsycUWkYo2kKS</t>
-  </si>
-  <si>
-    <t>If you followed the connection steps, but you're still having trouble connecting your device, you may need to reset your device through a Z-Wave exclusion. Note: The Z-Wave exclusion will still reset your device if it has never been connected before or was previously connected elsewhere.
-1. Put the Hub into exclusion mode
-        a. Tap the back button until you reach the Home screen and tap the Hub 
-        b. Tap the three dots in the top right
-        c. Tap Z-Wave exclusion
-2. Push the button on the face of the outlet once
-After your device has been successfully excluded, follow the steps below to connect your device to the Hub. 
-1. Return to the device connection screen
-        a. Tap the back button until you reach the Home screen
-        b. Tap Add device
-        c. Select a category to find your device, or search for the device in the search bar
-2. Push the button on the face of the outlet once</t>
+    <t>TTTTEEESSSTTTT</t>
+  </si>
+  <si>
+    <t>aTTTTEEESSSTTTT</t>
+  </si>
+  <si>
+    <t>1POcF3SaAkAoSWugQU22WK</t>
+  </si>
+  <si>
+    <t>5iDDJZZYicYAkCQk6U6OGM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,6 +113,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF536171"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -167,6 +150,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,11 +430,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -478,7 +465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -498,21 +485,21 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
@@ -523,11 +510,11 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
